--- a/Zernsee_Posten.xlsx
+++ b/Zernsee_Posten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\R\bike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE0209F-5191-4562-A21C-B354C5D66669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B30B7-E8BB-446A-9CB2-DACF287D28E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Gedenkstein Süd</t>
-  </si>
-  <si>
-    <t>Bugatti - ggf. verschwunden</t>
   </si>
   <si>
     <t>cje BIKE CHALLENGE 2020</t>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>In die richtige Reihenfolge gebracht, ergeben sie (kleingeschrieben) das Passwort.</t>
+  </si>
+  <si>
+    <t>Bugatti</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -444,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,6 +464,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3571875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992ACB0F-305E-4E2A-806B-D53469FFDEDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="6734176"/>
+          <a:ext cx="1943100" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Koordinaten nicht geprüft, potenziell ungenau</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +836,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -752,7 +845,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -761,14 +854,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -777,7 +870,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -786,7 +879,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -795,7 +888,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -1099,10 +1192,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="20">
-        <v>52.40578</v>
+        <v>52.405841000000002</v>
       </c>
       <c r="D26" s="20">
-        <v>12.95046</v>
+        <v>12.951022999999999</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>5</v>
@@ -1113,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="20">
         <v>52.397855999999997</v>
@@ -1368,7 +1461,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C42" s="23">
         <v>52.390937000000001</v>
@@ -1399,19 +1492,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
@@ -1429,5 +1519,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>